--- a/ExcelData/TestData.xlsx
+++ b/ExcelData/TestData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
   <si>
     <t>Url</t>
   </si>
@@ -164,6 +164,69 @@
   </si>
   <si>
     <t>Experience in  both Manual Testing and Automation testing</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Programming &amp; Tech</t>
+  </si>
+  <si>
+    <t>Subcategory</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>ServiceType</t>
+  </si>
+  <si>
+    <t>LocationType</t>
+  </si>
+  <si>
+    <t>On-site</t>
+  </si>
+  <si>
+    <t>Hourly basis service</t>
+  </si>
+  <si>
+    <t>One-off service</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>skillTrade</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Hidden</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>F:\word.docx</t>
+  </si>
+  <si>
+    <t>17:00PM</t>
+  </si>
+  <si>
+    <t>10:00AM</t>
   </si>
 </sst>
 </file>
@@ -212,7 +275,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -248,6 +311,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -256,17 +330,23 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -765,26 +845,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.77734375" customWidth="1"/>
-    <col min="7" max="7" width="18.77734375" customWidth="1"/>
-    <col min="8" max="8" width="44.5546875" customWidth="1"/>
-    <col min="9" max="9" width="31.33203125" customWidth="1"/>
+    <col min="2" max="4" width="33.109375" customWidth="1"/>
+    <col min="5" max="8" width="26.6640625" customWidth="1"/>
+    <col min="9" max="9" width="21.5546875" customWidth="1"/>
+    <col min="10" max="10" width="32.6640625" customWidth="1"/>
+    <col min="11" max="11" width="19.77734375" customWidth="1"/>
+    <col min="12" max="13" width="18.77734375" customWidth="1"/>
+    <col min="14" max="14" width="44.5546875" customWidth="1"/>
+    <col min="15" max="16" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -792,101 +872,170 @@
         <v>16</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="M1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="P1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="5">
+      <c r="F2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="11">
         <v>10052019</v>
       </c>
-      <c r="E2" s="6">
+      <c r="J2" s="5">
         <v>11112019</v>
       </c>
-      <c r="F2" s="6">
-        <v>1000</v>
-      </c>
-      <c r="G2" s="6">
-        <v>1700</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="K2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="3">
+      <c r="O2" s="3">
         <v>9</v>
       </c>
+      <c r="P2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
-        <v>20052019</v>
-      </c>
-      <c r="E3">
-        <v>21122019</v>
-      </c>
-      <c r="F3" s="6">
-        <v>1000</v>
-      </c>
-      <c r="G3" s="6">
-        <v>1700</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="F3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="7">
+        <v>43595</v>
+      </c>
+      <c r="J3" s="7">
+        <v>43780</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="3" t="s">
+    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="6">
-        <v>1000</v>
-      </c>
-      <c r="G4" s="6">
-        <v>1700</v>
-      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="3" t="s">
+    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="N5" s="3" t="s">
         <v>47</v>
       </c>
     </row>

--- a/ExcelData/TestData.xlsx
+++ b/ExcelData/TestData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
   <si>
     <t>Url</t>
   </si>
@@ -227,6 +227,15 @@
   </si>
   <si>
     <t>10:00AM</t>
+  </si>
+  <si>
+    <t>Verification</t>
+  </si>
+  <si>
+    <t>verification_delete</t>
+  </si>
+  <si>
+    <t>Test Engineer has been deleted</t>
   </si>
 </sst>
 </file>
@@ -330,7 +339,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
@@ -347,6 +356,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -845,10 +855,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -862,9 +872,11 @@
     <col min="12" max="13" width="18.77734375" customWidth="1"/>
     <col min="14" max="14" width="44.5546875" customWidth="1"/>
     <col min="15" max="16" width="31.33203125" customWidth="1"/>
+    <col min="18" max="18" width="19.109375" customWidth="1"/>
+    <col min="19" max="19" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -916,8 +928,14 @@
       <c r="Q1" s="10" t="s">
         <v>64</v>
       </c>
+      <c r="R1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>41</v>
       </c>
@@ -969,8 +987,14 @@
       <c r="Q2" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="R2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>46</v>
       </c>
@@ -1008,7 +1032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E4" s="3" t="s">
         <v>44</v>
       </c>
@@ -1028,7 +1052,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E5" s="3" t="s">
         <v>47</v>
       </c>

--- a/ExcelData/TestData.xlsx
+++ b/ExcelData/TestData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="77">
   <si>
     <t>Url</t>
   </si>
@@ -236,6 +236,18 @@
   </si>
   <si>
     <t>Test Engineer has been deleted</t>
+  </si>
+  <si>
+    <t>tester</t>
+  </si>
+  <si>
+    <t>qa</t>
+  </si>
+  <si>
+    <t>deletion</t>
+  </si>
+  <si>
+    <t>selenium</t>
   </si>
 </sst>
 </file>
@@ -284,7 +296,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -296,19 +308,6 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -339,7 +338,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
@@ -354,8 +353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -855,10 +853,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -872,11 +870,11 @@
     <col min="12" max="13" width="18.77734375" customWidth="1"/>
     <col min="14" max="14" width="44.5546875" customWidth="1"/>
     <col min="15" max="16" width="31.33203125" customWidth="1"/>
-    <col min="18" max="18" width="19.109375" customWidth="1"/>
-    <col min="19" max="19" width="29.6640625" customWidth="1"/>
+    <col min="18" max="19" width="19.109375" customWidth="1"/>
+    <col min="20" max="20" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -932,10 +930,13 @@
         <v>70</v>
       </c>
       <c r="S1" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="T1" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>41</v>
       </c>
@@ -960,11 +961,11 @@
       <c r="H2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="11">
-        <v>10052019</v>
-      </c>
-      <c r="J2" s="5">
-        <v>11112019</v>
+      <c r="I2" s="7">
+        <v>43595</v>
+      </c>
+      <c r="J2" s="7">
+        <v>43780</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>69</v>
@@ -987,14 +988,17 @@
       <c r="Q2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="S2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="T2" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>46</v>
       </c>
@@ -1032,7 +1036,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
       <c r="E4" s="3" t="s">
         <v>44</v>
       </c>
@@ -1052,7 +1059,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
       <c r="E5" s="3" t="s">
         <v>47</v>
       </c>
@@ -1063,6 +1073,11 @@
         <v>47</v>
       </c>
     </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ExcelData/TestData.xlsx
+++ b/ExcelData/TestData.xlsx
@@ -235,9 +235,6 @@
     <t>verification_delete</t>
   </si>
   <si>
-    <t>Test Engineer has been deleted</t>
-  </si>
-  <si>
     <t>tester</t>
   </si>
   <si>
@@ -248,6 +245,9 @@
   </si>
   <si>
     <t>selenium</t>
+  </si>
+  <si>
+    <t>selenium has been deleted</t>
   </si>
 </sst>
 </file>
@@ -855,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -930,7 +930,7 @@
         <v>70</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T1" s="10" t="s">
         <v>71</v>
@@ -992,10 +992,10 @@
         <v>46</v>
       </c>
       <c r="S2" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1038,7 +1038,7 @@
     </row>
     <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>44</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>47</v>
@@ -1075,7 +1075,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
